--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2286986.744561954</v>
+        <v>2277788.627976239</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492766</v>
+        <v>7709817.850552402</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9685352.271963133</v>
+        <v>9627136.931876896</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.7641616298973</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>22.14224004122534</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>117.1365314849865</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>201.3302879382942</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>309.2804930566538</v>
+        <v>65.72154808652235</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>141.5397336607884</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>63.01667685547826</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>344.5446510070691</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>11.43714135353491</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>79.32712070475399</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>24.62929101677598</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>175.8225211063367</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1424,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>188.5731339072699</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>16.65121269214383</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>155.0462988210299</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>109.8092081067007</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>14.20188851094979</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>70.09171223062498</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>48.96769364758816</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>125.1796947911547</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>118.5333823042747</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>62.80151030021166</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.6501441214364</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>28.00806043385894</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>80.85507880894372</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>50.69692056028425</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,16 +3004,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>99.84759100840529</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>206.6707794130039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3317,10 +3317,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>140.3233687625873</v>
       </c>
       <c r="H37" t="n">
-        <v>66.23125412673338</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>66.76073360401567</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>32.44594571120727</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>128.5992943798691</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3946,7 +3946,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3955,16 +3955,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>159.4675134892249</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>77.31354443380498</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>22.75865426406946</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1395.511531185079</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>1026.549014244667</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1026.549014244667</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>640.7607616464231</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>229.7748568568156</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1782.111371249201</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>524.7650569960363</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1284.854867100932</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X5" t="n">
-        <v>1623.742392185849</v>
+        <v>1674.994199076744</v>
       </c>
       <c r="Y5" t="n">
-        <v>1233.603060210037</v>
+        <v>1284.854867100932</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>924.0689295613406</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1591.613329588351</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2141.049338341074</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.5323736931989</v>
+        <v>513.7616862708547</v>
       </c>
       <c r="C7" t="n">
-        <v>117.596190765292</v>
+        <v>344.8255033429479</v>
       </c>
       <c r="D7" t="n">
-        <v>117.596190765292</v>
+        <v>344.8255033429479</v>
       </c>
       <c r="E7" t="n">
-        <v>117.596190765292</v>
+        <v>196.9124097605547</v>
       </c>
       <c r="F7" t="n">
-        <v>117.596190765292</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>117.596190765292</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>117.596190765292</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4726,49 +4726,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931989</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931989</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931989</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931989</v>
+        <v>695.4101511010945</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.5323736931989</v>
+        <v>695.4101511010945</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>915.8923501605202</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C8" t="n">
-        <v>915.8923501605202</v>
+        <v>1585.51910077419</v>
       </c>
       <c r="D8" t="n">
-        <v>915.8923501605202</v>
+        <v>1227.25340216744</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605202</v>
+        <v>841.4651495691955</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>430.4792447795879</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>418.9265767457143</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>468.4264940665502</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N8" t="n">
-        <v>2012.8703329856</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2617.020686265946</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2363.328983011097</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2032.266095667526</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1679.497440397412</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1306.031682136332</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>915.8923501605202</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>537.8115956207098</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>845.2309936650815</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>371.9959909279179</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>371.9959909279179</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4960,52 +4960,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.88339090485941</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1391.729710350377</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1168.9652718029</v>
       </c>
       <c r="U10" t="n">
-        <v>923.3997019991118</v>
+        <v>1144.087200068783</v>
       </c>
       <c r="V10" t="n">
-        <v>923.3997019991118</v>
+        <v>889.402711862896</v>
       </c>
       <c r="W10" t="n">
-        <v>633.9825319621511</v>
+        <v>599.9855418259353</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>371.9959909279179</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>371.9959909279179</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,7 +5024,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5045,19 +5045,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888352</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N11" t="n">
-        <v>3051.398683947134</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O11" t="n">
-        <v>3554.371154826471</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>2611.451764789528</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508.0400813400981</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="C13" t="n">
-        <v>339.1038984121913</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D13" t="n">
-        <v>339.1038984121913</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>339.1038984121913</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
         <v>339.1038984121913</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W13" t="n">
-        <v>910.481125313868</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="X13" t="n">
-        <v>910.481125313868</v>
+        <v>1204.050820091546</v>
       </c>
       <c r="Y13" t="n">
-        <v>689.6885461703379</v>
+        <v>983.2582409480156</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,25 +5279,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3641.993171584094</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,7 +5306,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.5107908505465</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="C16" t="n">
-        <v>707.5107908505465</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="D16" t="n">
-        <v>557.3941514382108</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>252.1734574999398</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.870226851287</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1109.951834824316</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.1592556807863</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5504,7 +5504,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5525,10 +5525,10 @@
         <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.371154826471</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086362</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>460.4910241367934</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="C19" t="n">
-        <v>460.4910241367934</v>
+        <v>109.9063763786467</v>
       </c>
       <c r="D19" t="n">
-        <v>460.4910241367934</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>312.5779305544003</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2536.15366264131</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>3082.932479700092</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3585.904950579429</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>460.1767209741892</v>
+        <v>3644.341121778307</v>
       </c>
       <c r="C22" t="n">
-        <v>291.2405380462823</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="D22" t="n">
-        <v>291.2405380462823</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="E22" t="n">
-        <v>291.2405380462823</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F22" t="n">
-        <v>291.2405380462823</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G22" t="n">
-        <v>291.2405380462823</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H22" t="n">
-        <v>145.02335126414</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>4370.091244851394</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258584</v>
+        <v>4370.091244851394</v>
       </c>
       <c r="V22" t="n">
-        <v>1198.376021052697</v>
+        <v>4115.406756645507</v>
       </c>
       <c r="W22" t="n">
-        <v>908.9588510157366</v>
+        <v>3825.989586608547</v>
       </c>
       <c r="X22" t="n">
-        <v>680.9693001177193</v>
+        <v>3825.989586608547</v>
       </c>
       <c r="Y22" t="n">
-        <v>460.1767209741892</v>
+        <v>3825.989586608547</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.5269503710301</v>
+        <v>3379.102407753227</v>
       </c>
       <c r="C25" t="n">
-        <v>393.5907674431232</v>
+        <v>3379.102407753227</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>3379.102407753227</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>3231.189314170834</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>3231.189314170834</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>3063.486477545553</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T25" t="n">
-        <v>1555.096435492821</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="U25" t="n">
-        <v>1265.993568618464</v>
+        <v>4207.432514129718</v>
       </c>
       <c r="V25" t="n">
-        <v>1011.309080412578</v>
+        <v>3952.748025923831</v>
       </c>
       <c r="W25" t="n">
-        <v>1011.309080412578</v>
+        <v>3663.33085588687</v>
       </c>
       <c r="X25" t="n">
-        <v>783.3195295145603</v>
+        <v>3599.894986896757</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.5269503710301</v>
+        <v>3379.102407753227</v>
       </c>
     </row>
     <row r="26">
@@ -6203,43 +6203,43 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>1923.729615463053</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107236</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>619.8559841413803</v>
+        <v>460.4910241367934</v>
       </c>
       <c r="C28" t="n">
-        <v>619.8559841413803</v>
+        <v>291.5548412088865</v>
       </c>
       <c r="D28" t="n">
-        <v>469.7393447290445</v>
+        <v>291.5548412088865</v>
       </c>
       <c r="E28" t="n">
-        <v>321.8262511466514</v>
+        <v>291.5548412088865</v>
       </c>
       <c r="F28" t="n">
-        <v>192.886711630049</v>
+        <v>291.5548412088865</v>
       </c>
       <c r="G28" t="n">
-        <v>192.886711630049</v>
+        <v>123.8520045836055</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>123.8520045836055</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6421,13 +6421,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X28" t="n">
-        <v>619.8559841413803</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y28" t="n">
-        <v>619.8559841413803</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6464,19 +6464,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>690.8733824405099</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1141.907595688919</v>
       </c>
       <c r="M29" t="n">
-        <v>2383.057343890768</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N29" t="n">
-        <v>3362.809616117415</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996752</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P29" t="n">
         <v>4260.55645335393</v>
@@ -6488,22 +6488,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y29" t="n">
         <v>2760.816196754296</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3410.859548844968</v>
+        <v>727.6246893481011</v>
       </c>
       <c r="C31" t="n">
-        <v>3329.187752068257</v>
+        <v>558.6885064201942</v>
       </c>
       <c r="D31" t="n">
-        <v>3329.187752068257</v>
+        <v>558.6885064201942</v>
       </c>
       <c r="E31" t="n">
-        <v>3329.187752068257</v>
+        <v>558.6885064201942</v>
       </c>
       <c r="F31" t="n">
-        <v>3182.297804570347</v>
+        <v>411.7985589222839</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945065</v>
+        <v>244.0957222970028</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945065</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816072</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>4364.599222816072</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>4109.914734610185</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>3820.497564573225</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X31" t="n">
-        <v>3592.508013675208</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="Y31" t="n">
-        <v>3592.508013675208</v>
+        <v>909.2731541783409</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,52 +6698,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2330.649739272053</v>
+        <v>1941.005908766397</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330835</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>511.9395339702917</v>
+        <v>3401.821403898992</v>
       </c>
       <c r="C34" t="n">
-        <v>343.0033510423848</v>
+        <v>3232.885220971085</v>
       </c>
       <c r="D34" t="n">
-        <v>192.886711630049</v>
+        <v>3232.885220971085</v>
       </c>
       <c r="E34" t="n">
-        <v>192.886711630049</v>
+        <v>3084.972127388692</v>
       </c>
       <c r="F34" t="n">
-        <v>192.886711630049</v>
+        <v>3084.972127388692</v>
       </c>
       <c r="G34" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>4173.912613039857</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>3919.22812483397</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>3629.81095479701</v>
       </c>
       <c r="X34" t="n">
-        <v>914.3805779440615</v>
+        <v>3401.821403898992</v>
       </c>
       <c r="Y34" t="n">
-        <v>693.5879988005314</v>
+        <v>3401.821403898992</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,22 +6935,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M35" t="n">
-        <v>2584.171204687568</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N35" t="n">
-        <v>3130.950021746351</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
         <v>4405.689038432984</v>
@@ -6965,16 +6965,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>460.4910241367934</v>
+        <v>849.4617675965557</v>
       </c>
       <c r="C37" t="n">
-        <v>460.4910241367934</v>
+        <v>680.5255846686488</v>
       </c>
       <c r="D37" t="n">
-        <v>310.3743847244576</v>
+        <v>530.408945256313</v>
       </c>
       <c r="E37" t="n">
-        <v>162.4612911420645</v>
+        <v>530.408945256313</v>
       </c>
       <c r="F37" t="n">
-        <v>162.4612911420645</v>
+        <v>383.5189977584026</v>
       </c>
       <c r="G37" t="n">
-        <v>162.4612911420645</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7117,28 +7117,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W37" t="n">
-        <v>909.2731541783409</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="X37" t="n">
-        <v>681.2836032803235</v>
+        <v>1251.902811570325</v>
       </c>
       <c r="Y37" t="n">
-        <v>460.4910241367934</v>
+        <v>1031.110232426795</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7175,22 +7175,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N38" t="n">
-        <v>3189.361480106701</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986038</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3321.343394765101</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="C40" t="n">
-        <v>3152.407211837194</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="D40" t="n">
-        <v>3152.407211837194</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E40" t="n">
-        <v>3152.407211837194</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F40" t="n">
-        <v>3084.972127388693</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699244</v>
+        <v>1420.286826722011</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493358</v>
+        <v>1165.602338516124</v>
       </c>
       <c r="W40" t="n">
-        <v>3730.981410493358</v>
+        <v>876.1851684791637</v>
       </c>
       <c r="X40" t="n">
-        <v>3502.99185959534</v>
+        <v>876.1851684791637</v>
       </c>
       <c r="Y40" t="n">
-        <v>3502.99185959534</v>
+        <v>655.3925893356336</v>
       </c>
     </row>
     <row r="41">
@@ -7388,73 +7388,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>413.1422297553282</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1067.865561890628</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1518.899775139037</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2497.450077968865</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.228895027647</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906984</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7521,7 +7521,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3795.480907275125</v>
+        <v>3757.676347801227</v>
       </c>
       <c r="C43" t="n">
-        <v>3626.544724347218</v>
+        <v>3588.74016487332</v>
       </c>
       <c r="D43" t="n">
-        <v>3476.428084934882</v>
+        <v>3438.623525460985</v>
       </c>
       <c r="E43" t="n">
-        <v>3328.514991352489</v>
+        <v>3290.710431878591</v>
       </c>
       <c r="F43" t="n">
-        <v>3328.514991352489</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G43" t="n">
-        <v>3160.812154727208</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H43" t="n">
-        <v>3014.594967945065</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177248</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S43" t="n">
-        <v>4688.221265177248</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T43" t="n">
-        <v>4466.454649746774</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U43" t="n">
-        <v>4177.351782872417</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V43" t="n">
-        <v>4016.273486418655</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="W43" t="n">
-        <v>4016.273486418655</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="X43" t="n">
-        <v>4016.273486418655</v>
+        <v>3757.676347801227</v>
       </c>
       <c r="Y43" t="n">
-        <v>3795.480907275125</v>
+        <v>3757.676347801227</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N44" t="n">
-        <v>2985.817436667297</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789526</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3314.416602430729</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C46" t="n">
-        <v>3145.480419502822</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D46" t="n">
-        <v>2995.363780090487</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E46" t="n">
-        <v>2995.363780090487</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F46" t="n">
-        <v>2995.363780090487</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G46" t="n">
-        <v>2995.363780090487</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>4778.05172241972</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>4488.948855545364</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>4234.264367339477</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>3944.847197302516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>3716.857646404499</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="Y46" t="n">
-        <v>3496.065067260969</v>
+        <v>686.6979017231758</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8222,16 +8222,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>159.797420900238</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>157.409714477327</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>159.797420900238</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>224.0472258793179</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>173.2204606877393</v>
       </c>
       <c r="P11" t="n">
-        <v>314.5564971416988</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>160.3329896347532</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>248.8400772687159</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>39.48321557772681</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>282.7041781993168</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>420.2833968404722</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>216.9877583263328</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>413.6699759607831</v>
       </c>
       <c r="N26" t="n">
-        <v>411.0304280898994</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>73.3473165083268</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>46.30618790178744</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>411.0304280898993</v>
+        <v>172.4995987156004</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>249.4515018379491</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>13.9882388354705</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>431.6494533859211</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>248.8400772687158</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>130.0020851999075</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>79.70465870845339</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>102.8529310510262</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>97.94986442932105</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>209.0584426968933</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>10.9795094379983</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>115.9004472823364</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>134.4135845072626</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>75.32933579230627</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>47.38472676224993</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>94.36925448501452</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>101.0155669718945</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>162.9081450888255</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>17.77090390149488</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.34435997597915</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>86.39174228968412</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>94.05809435403654</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>186.3642471972076</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>19.03887597603327</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>25.70243949644092</v>
       </c>
       <c r="H37" t="n">
-        <v>78.52376078758741</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>78.66031441891558</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25603,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>253.7658924944056</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,10 +25795,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>16.82175364306218</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>92.67012983460313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>67.4414704805158</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26071,10 +26071,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>202.9510011249677</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>891905.0461466979</v>
+        <v>869514.1403341758</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>869514.1403341758</v>
+        <v>829834.9705419274</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821932.4991971822</v>
+        <v>821932.4991971821</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821932.4991971822</v>
+        <v>821932.4991971821</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821932.4991971821</v>
+        <v>821932.4991971822</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821932.4991971821</v>
+        <v>821932.4991971822</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="E2" t="n">
-        <v>595622.680330475</v>
+        <v>595622.6803304745</v>
       </c>
       <c r="F2" t="n">
-        <v>595622.6803304751</v>
+        <v>595622.6803304742</v>
       </c>
       <c r="G2" t="n">
+        <v>595622.6803304746</v>
+      </c>
+      <c r="H2" t="n">
         <v>595622.6803304747</v>
       </c>
-      <c r="H2" t="n">
-        <v>595622.6803304746</v>
-      </c>
       <c r="I2" t="n">
+        <v>595622.6803304747</v>
+      </c>
+      <c r="J2" t="n">
+        <v>595622.6803304747</v>
+      </c>
+      <c r="K2" t="n">
         <v>595622.6803304749</v>
       </c>
-      <c r="J2" t="n">
-        <v>595622.680330475</v>
-      </c>
-      <c r="K2" t="n">
-        <v>595622.6803304751</v>
-      </c>
       <c r="L2" t="n">
-        <v>595622.6803304749</v>
+        <v>595622.6803304747</v>
       </c>
       <c r="M2" t="n">
+        <v>595622.6803304747</v>
+      </c>
+      <c r="N2" t="n">
         <v>595622.6803304745</v>
-      </c>
-      <c r="N2" t="n">
-        <v>595622.6803304746</v>
       </c>
       <c r="O2" t="n">
         <v>595622.6803304747</v>
       </c>
       <c r="P2" t="n">
-        <v>595622.680330475</v>
+        <v>595622.6803304747</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513058</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165043</v>
+        <v>258331.9582431704</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.555149825323106e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404877</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219663</v>
+        <v>28561.83935289569</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289576</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26482,13 +26482,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26506,10 +26506,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264872.1841202292</v>
+        <v>-266968.0453427747</v>
       </c>
       <c r="C6" t="n">
-        <v>325095.6950943153</v>
+        <v>155505.918529451</v>
       </c>
       <c r="D6" t="n">
-        <v>168629.6527380715</v>
+        <v>83339.49944639596</v>
       </c>
       <c r="E6" t="n">
-        <v>-82558.70764193963</v>
+        <v>212345.3644806947</v>
       </c>
       <c r="F6" t="n">
-        <v>471498.6199745647</v>
+        <v>470677.3227238648</v>
       </c>
       <c r="G6" t="n">
-        <v>471498.6199745645</v>
+        <v>470677.3227238653</v>
       </c>
       <c r="H6" t="n">
-        <v>471498.6199745643</v>
+        <v>470677.3227238653</v>
       </c>
       <c r="I6" t="n">
-        <v>471498.6199745645</v>
+        <v>470677.3227238654</v>
       </c>
       <c r="J6" t="n">
-        <v>295075.4007819718</v>
+        <v>294254.1035312724</v>
       </c>
       <c r="K6" t="n">
-        <v>471498.6199745648</v>
+        <v>470677.3227238655</v>
       </c>
       <c r="L6" t="n">
-        <v>471498.6199745645</v>
+        <v>470677.3227238654</v>
       </c>
       <c r="M6" t="n">
-        <v>341856.3051356194</v>
+        <v>341035.0078849205</v>
       </c>
       <c r="N6" t="n">
-        <v>471498.6199745642</v>
+        <v>470677.3227238651</v>
       </c>
       <c r="O6" t="n">
-        <v>471498.6199745644</v>
+        <v>470677.3227238653</v>
       </c>
       <c r="P6" t="n">
-        <v>471498.6199745646</v>
+        <v>470677.3227238653</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.443937281653883e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.443937281653883e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599693</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.2096553952639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.443937281653883e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>262.9696800335832</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>391.6419299795696</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>62.69544869695082</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>23.70481751979008</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>60.45060762181527</v>
+        <v>304.0095525919467</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>3.881314362142859</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>71.94894493685996</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>20.7282407639384</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>133.324742410212</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>261.5951579746135</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>49.88713428270043</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.97117696377468e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138796</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138803</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>331.6853252608032</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>267.1972170301541</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>331.6853252608032</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>420.1870501413366</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>681.2734615759584</v>
       </c>
       <c r="P11" t="n">
-        <v>713.3184833610707</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340054</v>
@@ -35647,13 +35647,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35662,13 +35662,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>559.0949758541251</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35893,13 +35893,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>801.1419126816272</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>647.6020634880878</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>578.4043314079536</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>681.4661644186887</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>959.2045126706989</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>769.2895937392443</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>952.5910917910098</v>
       </c>
       <c r="N26" t="n">
-        <v>963.3322635028109</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36832,22 +36832,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>410.5386030637273</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>585.2273037320142</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>949.951543920126</v>
+        <v>711.4207145458272</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>788.3726176681758</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>522.0412397236896</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>983.9512887988326</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>756.893078156935</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>320.78908616862</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37792,13 +37792,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>587.7576595966725</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>655.1547664639377</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340061</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390787.325163057</v>
+        <v>2386481.608786987</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>287.7732225559652</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>154.7689075793905</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.764863467406773</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>294.6012398593626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>10.11197856605508</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.17594707168676</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>371.1280624916565</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.4341823148131</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>79.2860473850909</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>16.24776607865577</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>2.60701007315213</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>91.87204320893736</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>179.986897510568</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>106.1291803787679</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>174.4028203107098</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>41.1667312069662</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>27.6842674365317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.48314223074972</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>5.64015276937488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>213.5398874823013</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>105.56838945123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>135.5795121770519</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>75.00788511618036</v>
+        <v>84.87800743369236</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>231.311970080263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>220.4289331391115</v>
+        <v>68.41584059195273</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>744.3346612638211</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C2" t="n">
-        <v>744.3346612638211</v>
+        <v>1114.740639657645</v>
       </c>
       <c r="D2" t="n">
-        <v>744.3346612638211</v>
+        <v>756.4749410508948</v>
       </c>
       <c r="E2" t="n">
-        <v>358.5464086655768</v>
+        <v>370.6866884526506</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>363.7411877034471</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4369,13 +4369,13 @@
         <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327943</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2388.358616186807</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>2019.396099246395</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1661.130400639645</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2686.93497125453</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2686.93497125453</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2433.173185892622</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2102.110298549051</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y5" t="n">
-        <v>2388.358616186807</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>407.4645182330357</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>407.4645182330357</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1505.175443665633</v>
+        <v>839.805717409625</v>
       </c>
       <c r="C8" t="n">
-        <v>1136.212926725222</v>
+        <v>839.805717409625</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9472281184711</v>
+        <v>839.805717409625</v>
       </c>
       <c r="E8" t="n">
-        <v>392.1589755202269</v>
+        <v>839.805717409625</v>
       </c>
       <c r="F8" t="n">
-        <v>385.2134747710234</v>
+        <v>428.8198126200174</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>541.6499951733606</v>
       </c>
       <c r="L8" t="n">
-        <v>785.3786496953994</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1417.096460678711</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.457387763373</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.457387763373</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.991629502294</v>
+        <v>1229.945049385437</v>
       </c>
       <c r="Y8" t="n">
-        <v>1891.775283729755</v>
+        <v>839.805717409625</v>
       </c>
     </row>
     <row r="9">
@@ -4889,13 +4889,13 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>982.8924109315594</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1623.437760398664</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.6095098485345</v>
+        <v>134.0298983709613</v>
       </c>
       <c r="C10" t="n">
-        <v>224.6095098485345</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>224.6095098485345</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>224.6095098485345</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>224.6095098485345</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1976249205994</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>634.2475255767915</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>634.2475255767915</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>634.2475255767915</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="X10" t="n">
-        <v>406.2579746787742</v>
+        <v>536.4709423447312</v>
       </c>
       <c r="Y10" t="n">
-        <v>406.2579746787742</v>
+        <v>315.678363201201</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>3210.485548300425</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>3369.710724020924</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>3997.308687575531</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687975</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.068022140585</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990373</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>2715.159942084666</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>3312.538429711218</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>3445.398957336244</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2978.516248701935</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C16" t="n">
-        <v>2809.580065774028</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D16" t="n">
-        <v>2659.463426361692</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>2659.463426361692</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>2512.573478863782</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>3160.164713532175</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>814.3728552556131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>2876.560776129205</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>3473.939263755757</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>3905.661761784424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,10 +6205,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2716.927329289434</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>2716.927329289434</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>3314.305816915985</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>3941.903780470592</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1405.737459147272</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1177.747908249255</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>956.9553291057244</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3026.711098656041</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243706</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4673.173412771574</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4490.318578426478</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4490.318578426478</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4201.243351770676</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>3946.558863564789</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>3657.141693527828</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>3429.152142629811</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>3208.359563486281</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>954.2476448606602</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>785.3114619327533</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y34" t="n">
-        <v>1135.8961096909</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1055.185257670615</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>886.249074742708</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>230.7656652470141</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1975.033022579363</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1685.615852542402</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1457.626301644385</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1236.833722500854</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7259,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2880.538088716435</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2711.601905788528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2561.485266376193</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>2561.485266376193</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3510.968683588222</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3282.979132690205</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3062.186553546675</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>218.690868449159</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>243.4933181983577</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>347.1032070028237</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.9159882634389</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>73.65209508333149</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>38.5977558415268</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>45.8481303472993</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>180.3938179578231</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>51.3068350783274</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>210.9709121168618</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>258.8387309000593</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.89210447937197</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>38.59775584152675</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>43.04708356698237</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>29.94462611521698</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>211.5151132204106</v>
+        <v>201.6449909028987</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>55.21102825632801</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>66.09406519747947</v>
+        <v>218.1071577446383</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630334</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682744</v>
@@ -26441,19 +26441,19 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682706</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682786</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682809</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266968.0453427745</v>
+        <v>-266968.0453427744</v>
       </c>
       <c r="C6" t="n">
-        <v>322999.83387177</v>
+        <v>322999.8338717697</v>
       </c>
       <c r="D6" t="n">
-        <v>167196.0277779747</v>
+        <v>167196.0277779748</v>
       </c>
       <c r="E6" t="n">
-        <v>-272492.8080038918</v>
+        <v>-272840.1872582487</v>
       </c>
       <c r="F6" t="n">
-        <v>498559.8833769145</v>
+        <v>498212.5041225576</v>
       </c>
       <c r="G6" t="n">
-        <v>498559.8833769144</v>
+        <v>498212.5041225575</v>
       </c>
       <c r="H6" t="n">
-        <v>498559.8833769145</v>
+        <v>498212.5041225574</v>
       </c>
       <c r="I6" t="n">
-        <v>498559.8833769141</v>
+        <v>498212.5041225575</v>
       </c>
       <c r="J6" t="n">
-        <v>322136.6641843216</v>
+        <v>321789.2849299645</v>
       </c>
       <c r="K6" t="n">
-        <v>498559.8833769145</v>
+        <v>498212.5041225576</v>
       </c>
       <c r="L6" t="n">
-        <v>498559.8833769144</v>
+        <v>498212.5041225579</v>
       </c>
       <c r="M6" t="n">
-        <v>374351.3726688559</v>
+        <v>374003.9934144989</v>
       </c>
       <c r="N6" t="n">
-        <v>498559.8833769143</v>
+        <v>498212.5041225572</v>
       </c>
       <c r="O6" t="n">
-        <v>498559.8833769143</v>
+        <v>498212.5041225572</v>
       </c>
       <c r="P6" t="n">
-        <v>498559.8833769143</v>
+        <v>498212.5041225574</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>119.1028231857462</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>259.0152624414044</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>136.9003285127511</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>87.32913021289914</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>164.3037342429164</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.6560331102505</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>41.78884145428032</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>209.8037563412405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>87.96077371353694</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>150.6730104759147</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
-        <v>302.9675447508047</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32098,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32338,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32554,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32794,22 +32794,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>567.425043425422</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>227.8611086463993</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33283,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>229.6463482471742</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33520,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>254.8897444730604</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33754,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M42" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35175,19 +35175,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>302.0879942820806</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>439.7905029377338</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35257,16 +35257,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>485.7189625742317</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35412,7 +35412,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287864</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35728,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35746,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35986,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>436.0833313420887</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>90.01966967204031</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36931,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37168,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>116.3353646931863</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37402,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M42" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2386481.608786987</v>
+        <v>2388242.139089772</v>
       </c>
     </row>
     <row r="7">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>154.7689075793905</v>
+        <v>186.815174149556</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>139.3733281349268</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>219.9605497055702</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>10.11197856605508</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1280624916565</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>38.25522515402903</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>79.2860473850909</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>35.46527312190288</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="D13" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>179.986897510568</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5981994227929</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>213.5398874823013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>135.5795121770519</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>84.87800743369236</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>68.41584059195273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1483.703156598057</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>1114.740639657645</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D2" t="n">
-        <v>756.4749410508948</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E2" t="n">
-        <v>370.6866884526506</v>
+        <v>1134.291778689542</v>
       </c>
       <c r="F2" t="n">
-        <v>363.7411877034471</v>
+        <v>723.3058738999346</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>363.7239216122612</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>363.7239216122612</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1194.514187280852</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>836.2484886741015</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>450.4602360758573</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>443.5147353266538</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>429.5913312652447</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2686.93497125453</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2686.93497125453</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2433.173185892622</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2102.110298549051</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1749.341643278937</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1749.341643278937</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>839.805717409625</v>
+        <v>801.1640758398987</v>
       </c>
       <c r="C8" t="n">
-        <v>839.805717409625</v>
+        <v>432.2015588994869</v>
       </c>
       <c r="D8" t="n">
-        <v>839.805717409625</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="E8" t="n">
-        <v>839.805717409625</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>428.8198126200174</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,7 +4807,7 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>541.6499951733606</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
         <v>1094.46325341956</v>
@@ -4834,22 +4834,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2502.292411945324</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260201</v>
+        <v>2248.600708690475</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.179462916631</v>
+        <v>1917.537821346904</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.410807646517</v>
+        <v>1564.76916607679</v>
       </c>
       <c r="X8" t="n">
-        <v>1229.945049385437</v>
+        <v>1191.30340781571</v>
       </c>
       <c r="Y8" t="n">
-        <v>839.805717409625</v>
+        <v>801.1640758398987</v>
       </c>
     </row>
     <row r="9">
@@ -4889,13 +4889,13 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>982.8924109315594</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1623.437760398664</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.0298983709613</v>
+        <v>836.4056902455271</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.4695073176202</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.4397743228914</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>764.4604932427485</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>536.4709423447312</v>
+        <v>1018.054155075767</v>
       </c>
       <c r="Y10" t="n">
-        <v>315.678363201201</v>
+        <v>1018.054155075767</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,19 +5123,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334694</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>129.5921236250085</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5834,10 +5834,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
         <v>1577.52840832642</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556308</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E31" t="n">
-        <v>483.8760050556308</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F31" t="n">
-        <v>483.8760050556308</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>552.8412329032296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032296</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1472.688997811978</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1183.271827775017</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>955.2822768769995</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>734.4896977334694</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6955,34 +6955,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>230.7656652470141</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7259,16 +7259,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5811134804959</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.011708352283</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1187.022157454266</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>966.2295783107356</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7390,28 +7390,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7432,28 +7432,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>240.7066105458822</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
         <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7733,13 +7733,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>218.690868449159</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1032070028237</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9259388694759139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>45.8481303472993</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9259388694759707</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>38.59775584152675</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>29.94462611521698</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>201.6449909028987</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>45.44677382459305</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>218.1071577446383</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982125</v>
@@ -26325,37 +26325,37 @@
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675047</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012794</v>
@@ -26429,16 +26429,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
@@ -26450,16 +26450,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682786</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682809</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266968.0453427744</v>
+        <v>-266968.0453427746</v>
       </c>
       <c r="C6" t="n">
         <v>322999.8338717697</v>
@@ -26530,40 +26530,40 @@
         <v>167196.0277779748</v>
       </c>
       <c r="E6" t="n">
-        <v>-272840.1872582487</v>
+        <v>-272527.5459293275</v>
       </c>
       <c r="F6" t="n">
-        <v>498212.5041225576</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="G6" t="n">
-        <v>498212.5041225575</v>
+        <v>498525.1454514789</v>
       </c>
       <c r="H6" t="n">
-        <v>498212.5041225574</v>
+        <v>498525.1454514784</v>
       </c>
       <c r="I6" t="n">
-        <v>498212.5041225575</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="J6" t="n">
-        <v>321789.2849299645</v>
+        <v>322101.9262588859</v>
       </c>
       <c r="K6" t="n">
-        <v>498212.5041225576</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="L6" t="n">
-        <v>498212.5041225579</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="M6" t="n">
-        <v>374003.9934144989</v>
+        <v>374316.6347434203</v>
       </c>
       <c r="N6" t="n">
-        <v>498212.5041225572</v>
+        <v>498525.1454514789</v>
       </c>
       <c r="O6" t="n">
-        <v>498212.5041225572</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="P6" t="n">
-        <v>498212.5041225574</v>
+        <v>498525.1454514785</v>
       </c>
     </row>
   </sheetData>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>259.0152624414044</v>
+        <v>226.968995871239</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.047719888004423</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>103.962223058787</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.3037342429164</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>63.13204062090063</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>41.78884145428032</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>174.396637960937</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>87.96077371353694</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>190.2443822671343</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>602.8420149078241</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33979,19 +33979,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>302.0879942820806</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35257,16 +35257,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>485.7189625742317</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35658,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>471.5003028244908</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
